--- a/REGULAR/CASUAL-REGULAR FINAL/SALAZAR, JOSIELYN.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/SALAZAR, JOSIELYN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,6 +292,24 @@
   </si>
   <si>
     <t>9/1-4,8-11,15-18,22-25,29,30/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>11/8-10,13-17/2023</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>11/3-5/2023</t>
+  </si>
+  <si>
+    <t>12/11,15-18/2023</t>
   </si>
 </sst>
 </file>
@@ -2933,7 +2951,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3341,12 +3359,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A71" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,7 +3525,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57.75</v>
+        <v>62.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3517,7 +3535,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5033,13 +5051,15 @@
         <v>45139</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5047,15 +5067,19 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45170</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5063,15 +5087,19 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45200</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5079,23 +5107,33 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="A87" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45261</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5111,7 +5149,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="48" t="s">
+        <v>85</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5127,7 +5167,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45292</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5143,7 +5185,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45323</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5159,7 +5203,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45352</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5175,7 +5221,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45383</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5191,7 +5239,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45413</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5207,7 +5257,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45444</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5223,7 +5275,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45474</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5239,7 +5293,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45505</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5847,20 +5903,36 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5909,10 +5981,10 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="C15" sqref="C15"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6082,7 +6154,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.3</v>
+        <v>53.3</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6840,10 +6912,16 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="39"/>
+      <c r="D43" s="39">
+        <v>8</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13" t="str">
@@ -6853,13 +6931,21 @@
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="39"/>
+      <c r="D44" s="39">
+        <v>5</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13" t="str">
@@ -6869,7 +6955,9 @@
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
